--- a/Energy Consumption37.xlsx
+++ b/Energy Consumption37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.352676239396231</v>
+        <v>4.045495732274246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8228420934760876</v>
+        <v>1.511024478812717</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.007353981557512</v>
+        <v>7.446184443117565</v>
       </c>
       <c r="C3" t="n">
-        <v>2.469901558576502</v>
+        <v>2.966064903100272</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.627429370331534</v>
+        <v>8.365356156143278</v>
       </c>
       <c r="C4" t="n">
-        <v>3.420240098230243</v>
+        <v>4.676376492967628</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.658063968272673</v>
+        <v>10.8235484012382</v>
       </c>
       <c r="C5" t="n">
-        <v>4.471516637316447</v>
+        <v>5.974205067448837</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.35462489347603</v>
+        <v>11.10761367534823</v>
       </c>
       <c r="C6" t="n">
-        <v>5.519601974434133</v>
+        <v>7.267188880845531</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.17338036152475</v>
+        <v>11.4908013006829</v>
       </c>
       <c r="C7" t="n">
-        <v>6.588599021077271</v>
+        <v>8.89964018785696</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.8325240775368</v>
+        <v>13.19893784236318</v>
       </c>
       <c r="C8" t="n">
-        <v>7.485183575222203</v>
+        <v>10.32462859022819</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.24845330027902</v>
+        <v>13.78330691909713</v>
       </c>
       <c r="C9" t="n">
-        <v>8.401341572070928</v>
+        <v>11.73870016266258</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.54720467450042</v>
+        <v>14.63408189523207</v>
       </c>
       <c r="C10" t="n">
-        <v>9.343592908192623</v>
+        <v>13.18543951116577</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.65695201445678</v>
+        <v>15.17221522932397</v>
       </c>
       <c r="C11" t="n">
-        <v>10.44360085550639</v>
+        <v>14.64110091663916</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.08809787938562</v>
+        <v>16.16766562099805</v>
       </c>
       <c r="C12" t="n">
-        <v>11.43929242188012</v>
+        <v>15.81281664976013</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35.23013670924186</v>
+        <v>23.88324367694838</v>
       </c>
       <c r="C13" t="n">
-        <v>12.28806232849674</v>
+        <v>17.25715788837302</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37.71117925446681</v>
+        <v>29.5739133221779</v>
       </c>
       <c r="C14" t="n">
-        <v>13.64893649141817</v>
+        <v>18.74378175416534</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37.88275393723201</v>
+        <v>31.77664218196445</v>
       </c>
       <c r="C15" t="n">
-        <v>14.80654259191213</v>
+        <v>20.0612437297103</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>42.10709298172425</v>
+        <v>33.21190198613429</v>
       </c>
       <c r="C16" t="n">
-        <v>16.49618691877789</v>
+        <v>21.45501244811165</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45.83114389278258</v>
+        <v>38.27461502687395</v>
       </c>
       <c r="C17" t="n">
-        <v>17.24885537904363</v>
+        <v>22.84904724755951</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46.05800203600683</v>
+        <v>40.551154937693</v>
       </c>
       <c r="C18" t="n">
-        <v>18.54898900317271</v>
+        <v>24.24146280720153</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>49.13013115075202</v>
+        <v>40.63672385303992</v>
       </c>
       <c r="C19" t="n">
-        <v>19.72734083479599</v>
+        <v>25.77376496883236</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>51.29353093660399</v>
+        <v>41.24145730389564</v>
       </c>
       <c r="C20" t="n">
-        <v>20.76606364959802</v>
+        <v>27.27051961136612</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>51.6323864998626</v>
+        <v>42.36673981791161</v>
       </c>
       <c r="C21" t="n">
-        <v>21.91018524176577</v>
+        <v>28.66138470800246</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52.71599948207598</v>
+        <v>43.7443579894589</v>
       </c>
       <c r="C22" t="n">
-        <v>22.83578577673513</v>
+        <v>30.33734664837597</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>54.61685772967336</v>
+        <v>47.36880728150401</v>
       </c>
       <c r="C23" t="n">
-        <v>23.89140146947748</v>
+        <v>31.85728044171165</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>55.59207014613944</v>
+        <v>49.96512270353566</v>
       </c>
       <c r="C24" t="n">
-        <v>25.23275542914236</v>
+        <v>33.26448624559008</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>59.18517809133181</v>
+        <v>53.10863044606238</v>
       </c>
       <c r="C25" t="n">
-        <v>26.30998138330182</v>
+        <v>34.66600169719916</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>60.27791214560072</v>
+        <v>62.76763030291587</v>
       </c>
       <c r="C26" t="n">
-        <v>27.29053474161496</v>
+        <v>36.03638251444526</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>60.70007381603719</v>
+        <v>64.08613664236512</v>
       </c>
       <c r="C27" t="n">
-        <v>28.29442015635894</v>
+        <v>37.50806042685146</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>63.40971773939466</v>
+        <v>68.31734634790764</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49070714046042</v>
+        <v>38.77124824876518</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>63.53093349112609</v>
+        <v>71.09117499775255</v>
       </c>
       <c r="C29" t="n">
-        <v>30.32206374161597</v>
+        <v>40.16745968938718</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68.68254995195396</v>
+        <v>71.38599896212673</v>
       </c>
       <c r="C30" t="n">
-        <v>31.48473362950579</v>
+        <v>41.56823242021897</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68.80922819605823</v>
+        <v>71.66442815299744</v>
       </c>
       <c r="C31" t="n">
-        <v>32.34710277815961</v>
+        <v>43.06685574205189</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>71.5478903637685</v>
+        <v>73.82119962265877</v>
       </c>
       <c r="C32" t="n">
-        <v>33.35775575092067</v>
+        <v>44.59725552689273</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>71.71694176563699</v>
+        <v>75.34405084818799</v>
       </c>
       <c r="C33" t="n">
-        <v>34.4524007282501</v>
+        <v>46.04582419601627</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>74.74390889720152</v>
+        <v>75.45257786781606</v>
       </c>
       <c r="C34" t="n">
-        <v>35.75019162767703</v>
+        <v>47.53016499544016</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>74.89287122153482</v>
+        <v>76.65167404255726</v>
       </c>
       <c r="C35" t="n">
-        <v>36.80108013304869</v>
+        <v>49.18294238678084</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75.41577192912284</v>
+        <v>77.90682632833682</v>
       </c>
       <c r="C36" t="n">
-        <v>37.87625455408142</v>
+        <v>50.56594246333142</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>76.11583857721422</v>
+        <v>79.40600162663964</v>
       </c>
       <c r="C37" t="n">
-        <v>38.84676912271876</v>
+        <v>51.92835595680131</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.19386088630623</v>
+        <v>81.71255850454112</v>
       </c>
       <c r="C38" t="n">
-        <v>40.3543779340163</v>
+        <v>53.47260089445633</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.39940101549017</v>
+        <v>85.89332432902555</v>
       </c>
       <c r="C39" t="n">
-        <v>41.26154737525443</v>
+        <v>54.77535394211034</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>77.66545959168413</v>
+        <v>89.28421830128102</v>
       </c>
       <c r="C40" t="n">
-        <v>42.37810223245158</v>
+        <v>56.12861772990928</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81.53241456654422</v>
+        <v>89.44248919341722</v>
       </c>
       <c r="C41" t="n">
-        <v>43.93740768528976</v>
+        <v>57.50301899865807</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83.20384161789907</v>
+        <v>89.84359766055307</v>
       </c>
       <c r="C42" t="n">
-        <v>45.55607066408572</v>
+        <v>59.19899792347676</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83.90309022135584</v>
+        <v>94.94724344014305</v>
       </c>
       <c r="C43" t="n">
-        <v>46.87715494095886</v>
+        <v>60.63303659559129</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>85.86853479876942</v>
+        <v>96.32508425569814</v>
       </c>
       <c r="C44" t="n">
-        <v>47.80899708166232</v>
+        <v>62.05762840974054</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>88.15877533898488</v>
+        <v>98.31700417647849</v>
       </c>
       <c r="C45" t="n">
-        <v>49.25289589092488</v>
+        <v>64.27234794557046</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>91.90386683032541</v>
+        <v>98.65919470832149</v>
       </c>
       <c r="C46" t="n">
-        <v>50.30387610416971</v>
+        <v>65.70392426160304</v>
       </c>
     </row>
     <row r="47">
@@ -945,32 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>92.61742872037438</v>
+        <v>99.64160413208504</v>
       </c>
       <c r="C47" t="n">
-        <v>51.2614465128423</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>94.67695692354263</v>
-      </c>
-      <c r="C48" t="n">
-        <v>52.27893769114591</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>96.98137405827511</v>
-      </c>
-      <c r="C49" t="n">
-        <v>53.17980931349882</v>
+        <v>67.27432579685004</v>
       </c>
     </row>
   </sheetData>
